--- a/biology/Botanique/Tetradenia_riparia/Tetradenia_riparia.xlsx
+++ b/biology/Botanique/Tetradenia_riparia/Tetradenia_riparia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tetradenia riparia est une espèce de plantes arbustives, de la famille des Lamiacées. Il est parfois appelé Iboza en zoulou dans sa région d'origine[2], faux patchouli en français, "Ginger bush", ou "Misty Plume Bush" en anglais, et "mirra" ou "pau-de-incenso" au Brésil, en raison de l'odeur de son feuillage rappelant le patchouli. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tetradenia riparia est une espèce de plantes arbustives, de la famille des Lamiacées. Il est parfois appelé Iboza en zoulou dans sa région d'origine, faux patchouli en français, "Ginger bush", ou "Misty Plume Bush" en anglais, et "mirra" ou "pau-de-incenso" au Brésil, en raison de l'odeur de son feuillage rappelant le patchouli. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est couramment planté dans les jardins comme ornementale en raison de son abondante floraison décorative[3]. La floraison n'a lieu que sous les climats subtropicaux ou tempérés.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est couramment planté dans les jardins comme ornementale en raison de son abondante floraison décorative. La floraison n'a lieu que sous les climats subtropicaux ou tempérés.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbuste est considéré comme une plante médicinale. L'huile essentielle de ses feuilles de Tetradenia riparia présente des activités antipaludiques[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbuste est considéré comme une plante médicinale. L'huile essentielle de ses feuilles de Tetradenia riparia présente des activités antipaludiques.
 			Vue d'ensemble de Tetradenia riparia en culture dans un jardin
 			Inflorescence de Tetradenia riparia
 			Détail de l'inflorescence de Tetradenia riparia
